--- a/Data/SchoolMobilityModule.xlsx
+++ b/Data/SchoolMobilityModule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abautist/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{06845FD9-40B9-5844-A7EE-91C2CD5DF921}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C6BF51-C6B4-8B43-B4C0-BAE9C63DE1A4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="37420" yWindow="3740" windowWidth="27240" windowHeight="16040" xr2:uid="{D290E5AC-DA73-654C-A302-4D244AEA7DB4}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>Question</t>
   </si>
@@ -72,9 +72,6 @@
 •We have decided to homeschool
 •Not applicable (child(ren) not school-aged)
 </t>
-  </si>
-  <si>
-    <t>c</t>
   </si>
 </sst>
 </file>
@@ -450,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D48B5624-8D3D-DB4A-AABF-E4ABC9D3B717}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -465,7 +462,7 @@
     <col min="6" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -482,7 +479,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="170" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="170" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -497,7 +494,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="238" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="238" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -511,7 +508,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="221" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="221" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -523,9 +520,6 @@
       </c>
       <c r="E4" s="6">
         <v>37</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Data/SchoolMobilityModule.xlsx
+++ b/Data/SchoolMobilityModule.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abautist/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurenkinnucan/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C6BF51-C6B4-8B43-B4C0-BAE9C63DE1A4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADA80B63-737B-444B-AD20-653B4887C22F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37420" yWindow="3740" windowWidth="27240" windowHeight="16040" xr2:uid="{D290E5AC-DA73-654C-A302-4D244AEA7DB4}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" xr2:uid="{D290E5AC-DA73-654C-A302-4D244AEA7DB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -450,7 +450,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Data/SchoolMobilityModule.xlsx
+++ b/Data/SchoolMobilityModule.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurenkinnucan/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmyescanlar/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADA80B63-737B-444B-AD20-653B4887C22F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B989536-D692-B24A-982D-9E887E956F18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" xr2:uid="{D290E5AC-DA73-654C-A302-4D244AEA7DB4}"/>
+    <workbookView xWindow="12600" yWindow="500" windowWidth="16200" windowHeight="16300" xr2:uid="{D290E5AC-DA73-654C-A302-4D244AEA7DB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>Question</t>
   </si>
@@ -34,9 +34,6 @@
   </si>
   <si>
     <t>Source</t>
-  </si>
-  <si>
-    <t>Occurrence</t>
   </si>
   <si>
     <t>Thinking about your school-aged children, check all that apply:</t>
@@ -72,6 +69,18 @@
 •We have decided to homeschool
 •Not applicable (child(ren) not school-aged)
 </t>
+  </si>
+  <si>
+    <t>Oct 5 - Oct 8</t>
+  </si>
+  <si>
+    <t>Dec 15 - Dec 17</t>
+  </si>
+  <si>
+    <t>Dec 1 - Dec 3</t>
+  </si>
+  <si>
+    <t>Dates Used</t>
   </si>
 </sst>
 </file>
@@ -449,8 +458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D48B5624-8D3D-DB4A-AABF-E4ABC9D3B717}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -473,53 +482,53 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="170" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>5</v>
-      </c>
       <c r="D2" s="4"/>
-      <c r="E2" s="5">
-        <v>27</v>
+      <c r="E2" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="238" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="6">
-        <v>35</v>
+      <c r="E3" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="221" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="6">
-        <v>37</v>
+      <c r="E4" s="6" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Data/SchoolMobilityModule.xlsx
+++ b/Data/SchoolMobilityModule.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25019"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -15,10 +15,19 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -36,13 +45,26 @@
     <t>Source</t>
   </si>
   <si>
+    <t>Source Link</t>
+  </si>
+  <si>
+    <t>Dates Used</t>
+  </si>
+  <si>
     <t>Thinking about your school-aged children, check all that apply:</t>
   </si>
   <si>
+    <t xml:space="preserve">•My child attends the same school this fall as they did in the spring
+•My child is attending a new school in the same district because they aged into the school (e.g., middle school to high school)  
+•My child is attending a new school because our family moved our residence  
+•My child is attending a new school for another reason  
+•Not applicable (child(ren) not school-aged)  </t>
+  </si>
+  <si>
     <t>Developed by RAPID Team</t>
   </si>
   <si>
-    <t>Source Link</t>
+    <t>10/05 /2020-10/08/2020</t>
   </si>
   <si>
     <t xml:space="preserve">•My child attends the same school this fall as they did in the spring
@@ -54,11 +76,7 @@
 •Not applicable (child(ren) not school-aged)  </t>
   </si>
   <si>
-    <t xml:space="preserve">•My child attends the same school this fall as they did in the spring
-•My child is attending a new school in the same district because they aged into the school (e.g., middle school to high school)  
-•My child is attending a new school because our family moved our residence  
-•My child is attending a new school for another reason  
-•Not applicable (child(ren) not school-aged)  </t>
+    <t>12/01/2020-12/03/2020</t>
   </si>
   <si>
     <t xml:space="preserve">•My child is attending the same school they were at the beginning of the school year in August or September
@@ -71,23 +89,14 @@
 </t>
   </si>
   <si>
-    <t>Oct 5 - Oct 8</t>
-  </si>
-  <si>
-    <t>Dec 15 - Dec 17</t>
-  </si>
-  <si>
-    <t>Dec 1 - Dec 3</t>
-  </si>
-  <si>
-    <t>Dates Used</t>
+    <t>12/15/2020-12/17/2020</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -459,19 +468,19 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95"/>
   <cols>
     <col min="1" max="1" width="35" style="3" customWidth="1"/>
     <col min="2" max="2" width="41.5" style="3" customWidth="1"/>
-    <col min="3" max="4" width="23.83203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" style="6" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="3"/>
+    <col min="3" max="4" width="23.875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="23" style="6" customWidth="1"/>
+    <col min="6" max="16384" width="10.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -482,53 +491,53 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="157.5">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="170" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="B2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>4</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="237.95">
+      <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="C3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" ht="238" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="6" t="s">
+    <row r="4" spans="1:5" ht="221.1">
+      <c r="A4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="221" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="C4" s="4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
